--- a/_reference/Dutch OOBs.xlsx
+++ b/_reference/Dutch OOBs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tomwh\Documents\Python\OOB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomwh\Documents\GitHub\QJM_Wargame\_reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1 NL Corps" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="4 Div" sheetId="15" r:id="rId3"/>
     <sheet name="5 Div" sheetId="16" r:id="rId4"/>
     <sheet name="Btns" sheetId="17" r:id="rId5"/>
-    <sheet name="References" sheetId="13" r:id="rId6"/>
+    <sheet name="Bdes" sheetId="18" r:id="rId6"/>
+    <sheet name="References" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="114">
   <si>
     <t>TOTAL</t>
   </si>
@@ -291,6 +291,90 @@
   </si>
   <si>
     <t>Support Co</t>
+  </si>
+  <si>
+    <t>Personnel ea</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
+    <t>HQ</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Mech Inf Btn</t>
+  </si>
+  <si>
+    <t>Armour Btn</t>
+  </si>
+  <si>
+    <t>Recce Co</t>
+  </si>
+  <si>
+    <t>AT Co</t>
+  </si>
+  <si>
+    <t>Mechanized Infantry Brigade (YP-408)</t>
+  </si>
+  <si>
+    <t>Tank Co</t>
+  </si>
+  <si>
+    <t>ARV</t>
+  </si>
+  <si>
+    <t>YPR-756</t>
+  </si>
+  <si>
+    <t>YPR-756 TOW</t>
+  </si>
+  <si>
+    <t>M113</t>
+  </si>
+  <si>
+    <t>M106</t>
+  </si>
+  <si>
+    <t>AMX-13 (105)</t>
+  </si>
+  <si>
+    <t>Engineer</t>
+  </si>
+  <si>
+    <t>AVLB</t>
+  </si>
+  <si>
+    <t>M557</t>
+  </si>
+  <si>
+    <t>Mechanized Infantry Brigade (YP-765)</t>
+  </si>
+  <si>
+    <t>Mech Inf (YP-765)</t>
+  </si>
+  <si>
+    <t>Inf Co</t>
+  </si>
+  <si>
+    <t>Combat Support Co</t>
+  </si>
+  <si>
+    <t>M113 Lynx</t>
+  </si>
+  <si>
+    <t>Armoured Brigade</t>
+  </si>
+  <si>
+    <t>Mixed Mech Inf Bde</t>
+  </si>
+  <si>
+    <t>Artillery Battalion</t>
+  </si>
+  <si>
+    <t>M109</t>
   </si>
 </sst>
 </file>
@@ -301,7 +385,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +402,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -357,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -391,6 +483,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="60" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -681,16 +787,16 @@
       <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="15" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" customWidth="1"/>
+    <col min="4" max="4" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="15" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="92.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="88.9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -727,12 +833,12 @@
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f>SUM(C2:O2)</f>
+        <f t="shared" ref="B2:B10" si="0">SUM(C2:O2)</f>
         <v>26665</v>
       </c>
       <c r="C2" s="3">
@@ -767,9 +873,9 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B3" s="12">
-        <f>SUM(C3:O3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
@@ -785,9 +891,9 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
-        <f>SUM(C4:O4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="3"/>
@@ -803,9 +909,9 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B5" s="12">
-        <f>SUM(C5:O5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="3"/>
@@ -821,9 +927,9 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
-        <f>SUM(C6:O6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
@@ -839,9 +945,9 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B7" s="12">
-        <f>SUM(C7:O7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="3"/>
@@ -857,9 +963,9 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
-        <f>SUM(C8:O8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="3"/>
@@ -875,9 +981,9 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B9" s="12">
-        <f>SUM(C9:O9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" s="3"/>
@@ -893,9 +999,9 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
-        <f>SUM(C10:O10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="3"/>
@@ -911,7 +1017,7 @@
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B11" s="12"/>
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
@@ -923,7 +1029,7 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
@@ -935,7 +1041,7 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B13" s="12"/>
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
@@ -947,7 +1053,7 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B14" s="12"/>
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
@@ -959,7 +1065,7 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B15" s="12"/>
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
@@ -971,7 +1077,7 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
       <c r="C16" s="3"/>
       <c r="E16" s="3"/>
@@ -983,7 +1089,7 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
       <c r="C17" s="3"/>
       <c r="E17" s="3"/>
@@ -995,7 +1101,7 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B18" s="12"/>
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
@@ -1007,7 +1113,7 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B19" s="12"/>
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
@@ -1019,7 +1125,7 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B20" s="12"/>
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
@@ -1031,7 +1137,7 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B21" s="12"/>
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
@@ -1043,7 +1149,7 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B22" s="12"/>
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
@@ -1055,7 +1161,7 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B23" s="12"/>
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
@@ -1067,7 +1173,7 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B24" s="12"/>
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
@@ -1079,7 +1185,7 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B25" s="12"/>
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
@@ -1091,7 +1197,7 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B26" s="12"/>
       <c r="C26" s="3"/>
       <c r="E26" s="3"/>
@@ -1103,7 +1209,7 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B27" s="12"/>
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
@@ -1115,7 +1221,7 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B28" s="12"/>
       <c r="C28" s="3"/>
       <c r="E28" s="3"/>
@@ -1127,7 +1233,7 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B29" s="12"/>
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
@@ -1139,7 +1245,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B30" s="12"/>
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
@@ -1151,7 +1257,7 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="4"/>
       <c r="B31" s="12"/>
       <c r="C31" s="3"/>
@@ -1164,7 +1270,7 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="12"/>
       <c r="C32" s="3"/>
@@ -1177,7 +1283,7 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B33" s="12"/>
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
@@ -1189,10 +1295,10 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B38" s="12"/>
       <c r="C38" s="3"/>
       <c r="E38" s="3"/>
@@ -1204,7 +1310,7 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B39" s="12"/>
       <c r="C39" s="3"/>
       <c r="E39" s="3"/>
@@ -1216,7 +1322,7 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B40" s="12"/>
       <c r="C40" s="3"/>
       <c r="E40" s="3"/>
@@ -1228,7 +1334,7 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B41" s="12"/>
       <c r="C41" s="3"/>
       <c r="E41" s="3"/>
@@ -1240,7 +1346,7 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B42" s="12"/>
       <c r="C42" s="3"/>
       <c r="E42" s="3"/>
@@ -1252,7 +1358,7 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B43" s="12"/>
       <c r="C43" s="3"/>
       <c r="E43" s="3"/>
@@ -1264,7 +1370,7 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B44" s="12"/>
       <c r="C44" s="3"/>
       <c r="E44" s="3"/>
@@ -1276,7 +1382,7 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B45" s="12"/>
       <c r="C45" s="3"/>
       <c r="E45" s="3"/>
@@ -1288,7 +1394,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B46" s="12"/>
       <c r="C46" s="3"/>
       <c r="E46" s="3"/>
@@ -1300,7 +1406,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B47" s="12"/>
       <c r="C47" s="3"/>
       <c r="E47" s="3"/>
@@ -1312,7 +1418,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B48" s="12"/>
       <c r="C48" s="3"/>
       <c r="E48" s="3"/>
@@ -1324,7 +1430,7 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B49" s="12"/>
       <c r="C49" s="3"/>
       <c r="E49" s="3"/>
@@ -1336,7 +1442,7 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B50" s="12"/>
       <c r="C50" s="3"/>
       <c r="E50" s="3"/>
@@ -1348,7 +1454,7 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B51" s="12"/>
       <c r="C51" s="3"/>
       <c r="E51" s="3"/>
@@ -1360,7 +1466,7 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B52" s="12"/>
       <c r="C52" s="3"/>
       <c r="E52" s="3"/>
@@ -1372,7 +1478,7 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B53" s="12"/>
       <c r="C53" s="3"/>
       <c r="E53" s="3"/>
@@ -1384,7 +1490,7 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B54" s="12"/>
       <c r="C54" s="3"/>
       <c r="E54" s="3"/>
@@ -1396,7 +1502,7 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B55" s="12"/>
       <c r="C55" s="3"/>
       <c r="E55" s="3"/>
@@ -1408,7 +1514,7 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B56" s="12"/>
       <c r="C56" s="3"/>
       <c r="E56" s="3"/>
@@ -1420,7 +1526,7 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B57" s="12"/>
       <c r="C57" s="3"/>
       <c r="E57" s="3"/>
@@ -1432,7 +1538,7 @@
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B58" s="12"/>
       <c r="C58" s="3"/>
       <c r="E58" s="3"/>
@@ -1444,7 +1550,7 @@
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B59" s="12"/>
       <c r="C59" s="3"/>
       <c r="E59" s="3"/>
@@ -1456,7 +1562,7 @@
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B60" s="12"/>
       <c r="C60" s="3"/>
       <c r="E60" s="3"/>
@@ -1468,7 +1574,7 @@
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B61" s="12"/>
       <c r="C61" s="3"/>
       <c r="E61" s="3"/>
@@ -1480,7 +1586,7 @@
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B62" s="12"/>
       <c r="C62" s="3"/>
       <c r="E62" s="3"/>
@@ -1492,7 +1598,7 @@
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B63" s="12"/>
       <c r="C63" s="3"/>
       <c r="E63" s="3"/>
@@ -1504,7 +1610,7 @@
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B64" s="12"/>
       <c r="C64" s="3"/>
       <c r="E64" s="3"/>
@@ -1516,7 +1622,7 @@
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B65" s="12"/>
       <c r="C65" s="3"/>
       <c r="E65" s="3"/>
@@ -1528,7 +1634,7 @@
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B66" s="12"/>
       <c r="C66" s="3"/>
       <c r="E66" s="3"/>
@@ -1540,7 +1646,7 @@
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A67" s="4"/>
       <c r="B67" s="12"/>
       <c r="C67" s="3"/>
@@ -1553,7 +1659,7 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A68" s="5"/>
       <c r="B68" s="12"/>
       <c r="C68" s="3"/>
@@ -1566,7 +1672,7 @@
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B69" s="12"/>
       <c r="C69" s="3"/>
       <c r="E69" s="3"/>
@@ -1578,7 +1684,7 @@
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B70" s="12"/>
       <c r="C70" s="3"/>
       <c r="E70" s="3"/>
@@ -1590,7 +1696,7 @@
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B71" s="12"/>
       <c r="C71" s="3"/>
       <c r="E71" s="3"/>
@@ -1602,7 +1708,7 @@
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B72" s="12"/>
       <c r="C72" s="3"/>
       <c r="E72" s="3"/>
@@ -1614,7 +1720,7 @@
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B73" s="12"/>
       <c r="C73" s="3"/>
       <c r="E73" s="3"/>
@@ -1626,7 +1732,7 @@
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B74" s="12"/>
       <c r="C74" s="3"/>
       <c r="E74" s="3"/>
@@ -1638,7 +1744,7 @@
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B75" s="12"/>
       <c r="C75" s="3"/>
       <c r="E75" s="3"/>
@@ -1650,7 +1756,7 @@
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B76" s="12"/>
       <c r="C76" s="3"/>
       <c r="E76" s="3"/>
@@ -1662,7 +1768,7 @@
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B77" s="12"/>
       <c r="C77" s="3"/>
       <c r="E77" s="3"/>
@@ -1674,7 +1780,7 @@
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B78" s="12"/>
       <c r="C78" s="3"/>
       <c r="E78" s="3"/>
@@ -1686,7 +1792,7 @@
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B79" s="12"/>
       <c r="C79" s="3"/>
       <c r="E79" s="3"/>
@@ -1698,7 +1804,7 @@
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B80" s="12"/>
       <c r="C80" s="3"/>
       <c r="E80" s="3"/>
@@ -1710,7 +1816,7 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B81" s="12"/>
       <c r="C81" s="3"/>
       <c r="E81" s="3"/>
@@ -1722,7 +1828,7 @@
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B82" s="12"/>
       <c r="C82" s="3"/>
       <c r="E82" s="3"/>
@@ -1734,7 +1840,7 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B83" s="12"/>
       <c r="C83" s="3"/>
       <c r="E83" s="3"/>
@@ -1746,7 +1852,7 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B84" s="12"/>
       <c r="C84" s="3"/>
       <c r="E84" s="3"/>
@@ -1758,7 +1864,7 @@
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B85" s="12"/>
       <c r="C85" s="3"/>
       <c r="E85" s="3"/>
@@ -1770,7 +1876,7 @@
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B86" s="12"/>
       <c r="C86" s="3"/>
       <c r="E86" s="3"/>
@@ -1782,7 +1888,7 @@
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B87" s="12"/>
       <c r="C87" s="3"/>
       <c r="E87" s="3"/>
@@ -1794,7 +1900,7 @@
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B88" s="12"/>
       <c r="C88" s="3"/>
       <c r="E88" s="3"/>
@@ -1806,7 +1912,7 @@
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B89" s="12"/>
       <c r="C89" s="3"/>
       <c r="E89" s="3"/>
@@ -1818,7 +1924,7 @@
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B90" s="12"/>
       <c r="C90" s="3"/>
       <c r="E90" s="3"/>
@@ -1830,7 +1936,7 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B91" s="12"/>
       <c r="C91" s="3"/>
       <c r="E91" s="3"/>
@@ -1842,7 +1948,7 @@
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B92" s="12"/>
       <c r="C92" s="3"/>
       <c r="E92" s="3"/>
@@ -1854,7 +1960,7 @@
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B93" s="12"/>
       <c r="C93" s="3"/>
       <c r="E93" s="3"/>
@@ -1866,7 +1972,7 @@
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B94" s="12"/>
       <c r="C94" s="3"/>
       <c r="E94" s="3"/>
@@ -1878,7 +1984,7 @@
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B95" s="12"/>
       <c r="C95" s="3"/>
       <c r="E95" s="3"/>
@@ -1890,7 +1996,7 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B96" s="12"/>
       <c r="C96" s="3"/>
       <c r="E96" s="3"/>
@@ -1902,7 +2008,7 @@
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B97" s="12"/>
       <c r="C97" s="3"/>
       <c r="E97" s="3"/>
@@ -1914,7 +2020,7 @@
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B98" s="12"/>
       <c r="C98" s="3"/>
       <c r="E98" s="3"/>
@@ -1926,7 +2032,7 @@
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B99" s="12"/>
       <c r="C99" s="3"/>
       <c r="E99" s="3"/>
@@ -1952,15 +2058,15 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="11" customWidth="1"/>
-    <col min="4" max="16" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" style="11" customWidth="1"/>
+    <col min="4" max="16" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="77.650000000000006" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2010,12 +2116,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f>SUM(D2:P2)</f>
+        <f t="shared" ref="B2:B10" si="0">SUM(D2:P2)</f>
         <v>17089</v>
       </c>
       <c r="C2" s="10"/>
@@ -2043,12 +2149,12 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="12">
-        <f>SUM(D3:P3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C3" s="10"/>
@@ -2070,12 +2176,12 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="12">
-        <f>SUM(D4:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="10"/>
@@ -2097,12 +2203,12 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="12">
-        <f>SUM(D5:P5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="10"/>
@@ -2122,12 +2228,12 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="12">
-        <f>SUM(D6:P6)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C6" s="10"/>
@@ -2148,12 +2254,12 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="12">
-        <f>SUM(D7:P7)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C7" s="10"/>
@@ -2174,12 +2280,12 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>61</v>
       </c>
       <c r="B8" s="12">
-        <f>SUM(D8:P8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="10"/>
@@ -2199,12 +2305,12 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="12">
-        <f>SUM(D9:P9)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="10"/>
@@ -2225,12 +2331,12 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>63</v>
       </c>
       <c r="B10" s="12">
-        <f>SUM(D10:P10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="10"/>
@@ -2251,12 +2357,12 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>64</v>
       </c>
       <c r="B11" s="12">
-        <f t="shared" ref="B11:B17" si="0">SUM(D11:P11)</f>
+        <f t="shared" ref="B11:B17" si="1">SUM(D11:P11)</f>
         <v>9</v>
       </c>
       <c r="D11" s="3">
@@ -2264,12 +2370,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
       <c r="D12" s="3">
@@ -2277,12 +2383,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D13" s="3">
@@ -2290,12 +2396,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D14" s="3">
@@ -2303,12 +2409,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>65</v>
       </c>
       <c r="B15" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D15" s="3">
@@ -2316,12 +2422,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D16" s="3">
@@ -2329,12 +2435,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>67</v>
       </c>
       <c r="B17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D17" s="3">
@@ -2342,241 +2448,241 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>68</v>
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D33" s="3"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D74" s="3"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D75" s="3"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D76" s="3"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D80" s="3"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D81" s="3"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D82" s="3"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D85" s="3"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D87" s="3"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D88" s="3"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D89" s="3"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D90" s="3"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D91" s="3"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D92" s="3"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D93" s="3"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D95" s="3"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D96" s="3"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D97" s="3"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D98" s="3"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D99" s="3"/>
     </row>
   </sheetData>
@@ -2592,15 +2698,15 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="11" customWidth="1"/>
-    <col min="4" max="17" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.73046875" customWidth="1"/>
+    <col min="3" max="3" width="7.73046875" style="11" customWidth="1"/>
+    <col min="4" max="17" width="6.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="68.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>37</v>
       </c>
@@ -2645,12 +2751,12 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f>SUM(D2:Q2)</f>
+        <f t="shared" ref="B2:B10" si="0">SUM(D2:Q2)</f>
         <v>9722</v>
       </c>
       <c r="C2" s="10"/>
@@ -2677,12 +2783,12 @@
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="12">
-        <f>SUM(D3:Q3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C3" s="10"/>
@@ -2703,12 +2809,12 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="12">
-        <f>SUM(D4:Q4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="10"/>
@@ -2729,9 +2835,9 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B5" s="12">
-        <f>SUM(D5:Q5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="10"/>
@@ -2750,9 +2856,9 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
-        <f>SUM(D6:Q6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" s="10"/>
@@ -2771,9 +2877,9 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B7" s="12">
-        <f>SUM(D7:Q7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="10"/>
@@ -2792,9 +2898,9 @@
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
-        <f>SUM(D8:Q8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="10"/>
@@ -2813,9 +2919,9 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="12">
-        <f>SUM(D9:Q9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" s="10"/>
@@ -2834,9 +2940,9 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
-        <f>SUM(D10:Q10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="10"/>
@@ -2855,343 +2961,343 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
     </row>
@@ -3209,15 +3315,15 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="11" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.73046875" customWidth="1"/>
+    <col min="4" max="6" width="6.73046875" customWidth="1"/>
+    <col min="7" max="11" width="4.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="80.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="77.650000000000006" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -3252,12 +3358,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f>SUM(D2:P2)</f>
+        <f t="shared" ref="B2:B10" si="0">SUM(D2:P2)</f>
         <v>11524</v>
       </c>
       <c r="C2" s="10"/>
@@ -3271,9 +3377,9 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B3" s="12">
-        <f>SUM(D3:P3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C3" s="10"/>
@@ -3281,9 +3387,9 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
-        <f>SUM(D4:P4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="10"/>
@@ -3291,9 +3397,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B5" s="12">
-        <f>SUM(D5:P5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="10"/>
@@ -3301,9 +3407,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B6" s="12">
-        <f>SUM(D6:P6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" s="10"/>
@@ -3311,9 +3417,9 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B7" s="12">
-        <f>SUM(D7:P7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7" s="10"/>
@@ -3321,9 +3427,9 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B8" s="12">
-        <f>SUM(D8:P8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C8" s="10"/>
@@ -3331,9 +3437,9 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B9" s="12">
-        <f>SUM(D9:P9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C9" s="10"/>
@@ -3341,9 +3447,9 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B10" s="12">
-        <f>SUM(D10:P10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C10" s="10"/>
@@ -3358,23 +3464,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56:C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="53.25" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
@@ -3400,12 +3507,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12">
-        <f>SUM(D2:P2)</f>
+        <f t="shared" ref="B2:B11" si="0">SUM(D2:P2)</f>
         <v>621</v>
       </c>
       <c r="C2" s="10">
@@ -3427,12 +3534,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="12">
-        <f>SUM(D3:P3)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C3" s="10"/>
@@ -3444,12 +3551,12 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="12">
-        <f>SUM(D4:P4)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C4" s="10"/>
@@ -3461,12 +3568,12 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="12">
-        <f>SUM(D5:P5)</f>
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C5" s="10"/>
@@ -3486,12 +3593,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="12">
-        <f>SUM(D6:P6)</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="C6" s="10"/>
@@ -3516,12 +3623,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="12">
-        <f>SUM(D7:P7)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="C7" s="10"/>
@@ -3542,12 +3649,12 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="12">
-        <f>SUM(D8:P8)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C8" s="10"/>
@@ -3566,12 +3673,12 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="12">
-        <f>SUM(D9:P9)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C9" s="10"/>
@@ -3590,12 +3697,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="12">
-        <f>SUM(D10:P10)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="10"/>
@@ -3611,12 +3718,12 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="12">
-        <f>SUM(D11:P11)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C11" s="10"/>
@@ -3632,12 +3739,12 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>78</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" ref="B12" si="0">SUM(D12:P12)</f>
+        <f t="shared" ref="B12" si="1">SUM(D12:P12)</f>
         <v>18</v>
       </c>
       <c r="D12" s="3"/>
@@ -3652,7 +3759,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -3668,7 +3775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3684,7 +3791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -3700,7 +3807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="12"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -3708,7 +3815,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" s="12"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -3716,7 +3823,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="53.25" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>83</v>
       </c>
@@ -3742,12 +3849,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="12">
-        <f>SUM(D19:P19)</f>
+        <f t="shared" ref="B19:B28" si="2">SUM(D19:P19)</f>
         <v>621</v>
       </c>
       <c r="C19" s="10">
@@ -3769,12 +3876,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="12">
-        <f>SUM(D20:P20)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="C20" s="10"/>
@@ -3786,12 +3893,12 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="12">
-        <f>SUM(D21:P21)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="C21" s="10"/>
@@ -3803,12 +3910,12 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="12">
-        <f>SUM(D22:P22)</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="C22" s="10"/>
@@ -3828,12 +3935,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="12">
-        <f>SUM(D23:P23)</f>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="C23" s="10"/>
@@ -3858,12 +3965,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="12">
-        <f>SUM(D24:P24)</f>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="C24" s="10"/>
@@ -3884,12 +3991,12 @@
       </c>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="12">
-        <f>SUM(D25:P25)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C25" s="10"/>
@@ -3908,12 +4015,12 @@
       </c>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="12">
-        <f>SUM(D26:P26)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="C26" s="10"/>
@@ -3932,12 +4039,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>76</v>
       </c>
       <c r="B27" s="12">
-        <f>SUM(D27:P27)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="C27" s="10"/>
@@ -3953,12 +4060,12 @@
       </c>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>77</v>
       </c>
       <c r="B28" s="12">
-        <f>SUM(D28:P28)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="C28" s="10"/>
@@ -3974,12 +4081,12 @@
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="12">
-        <f t="shared" ref="B29" si="1">SUM(D29:P29)</f>
+        <f t="shared" ref="B29" si="3">SUM(D29:P29)</f>
         <v>18</v>
       </c>
       <c r="D29" s="3"/>
@@ -3994,7 +4101,7 @@
       </c>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -4010,7 +4117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -4026,7 +4133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -4042,448 +4149,1054 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+    <row r="34" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="19">
+        <v>566</v>
+      </c>
+      <c r="C35" s="12">
+        <f>SUM(D35:O35)</f>
+        <v>566</v>
+      </c>
+      <c r="D35" s="3">
+        <f>SUMPRODUCT(D36:D52,$B36:$B52)</f>
+        <v>317</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" ref="E35:J35" si="4">SUMPRODUCT(E36:E52,$B36:$B52)</f>
+        <v>45</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="19">
+        <v>4</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" ref="C36:C52" si="5">SUM(D36:O36)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="19">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="19">
+        <v>2</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D38" s="3">
+        <v>12</v>
+      </c>
+      <c r="E38" s="20">
+        <v>3</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="19">
+        <v>1</v>
+      </c>
+      <c r="C39" s="12">
+        <f>SUM(D39:O39)</f>
+        <v>110</v>
+      </c>
+      <c r="D39" s="3">
+        <v>98</v>
+      </c>
+      <c r="E39" s="3">
+        <v>12</v>
+      </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="19">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="D40" s="3">
+        <v>28</v>
+      </c>
+      <c r="E40" s="20">
+        <v>6</v>
+      </c>
+      <c r="F40" s="20"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="19">
+        <v>2</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" s="19">
+        <v>6</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="19">
+        <v>2</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" s="19">
+        <v>2</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D49" s="3"/>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="19">
+        <v>2</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
       <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F49" s="3">
+        <v>17</v>
+      </c>
+      <c r="G49" s="3">
+        <v>17</v>
+      </c>
+      <c r="H49" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
       <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="E50" s="3">
+        <v>3</v>
+      </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D51" s="3">
+        <v>9</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D52" s="3"/>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+      <c r="D52" s="3">
+        <v>129</v>
+      </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="90.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I54" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="19"/>
+      <c r="C55" s="12">
+        <f>SUM(D55:O55)</f>
+        <v>655</v>
+      </c>
+      <c r="D55" s="3">
+        <f>SUMPRODUCT(D56:D79,$B56:$B79)</f>
+        <v>166</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" ref="E55:J55" si="6">SUMPRODUCT(E56:E79,$B56:$B79)</f>
+        <v>107</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="19">
+        <v>4</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" ref="C56:C72" si="7">SUM(D56:O56)</f>
+        <v>0</v>
+      </c>
       <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D59" s="3"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="19">
+        <v>1</v>
+      </c>
+      <c r="C57" s="12">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="D57" s="3">
+        <v>8</v>
+      </c>
+      <c r="E57" s="20">
+        <v>21</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="19">
+        <v>2</v>
+      </c>
+      <c r="C58" s="12">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="D58" s="3">
+        <v>8</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="F58" s="3">
+        <v>9</v>
+      </c>
+      <c r="G58" s="3">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="19">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12">
+        <f>SUM(D59:O59)</f>
+        <v>177</v>
+      </c>
+      <c r="D59" s="3">
+        <v>60</v>
+      </c>
       <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F59" s="20">
+        <f>26+7</f>
+        <v>33</v>
+      </c>
+      <c r="G59" s="20">
+        <f t="shared" ref="G59:H59" si="8">26+7</f>
+        <v>33</v>
+      </c>
+      <c r="H59" s="20">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="I59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="19">
+        <v>1</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" ref="C60:C79" si="9">SUM(D60:O60)</f>
+        <v>34</v>
+      </c>
+      <c r="D60" s="3">
+        <v>22</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20">
+        <v>4</v>
+      </c>
+      <c r="G60" s="20">
+        <v>4</v>
+      </c>
+      <c r="H60" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" s="19">
+        <v>2</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
       <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E61" s="20"/>
+      <c r="F61" s="20">
+        <v>3</v>
+      </c>
+      <c r="G61" s="20">
+        <v>3</v>
+      </c>
+      <c r="H61" s="20">
+        <v>3</v>
+      </c>
+      <c r="I61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" s="19">
+        <v>6</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" s="19">
+        <v>2</v>
+      </c>
+      <c r="C63" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="19">
+        <v>2</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="19">
+        <v>2</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>81</v>
+      </c>
+      <c r="B67">
+        <v>4</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="I68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D71" s="3"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="D71" s="3">
+        <v>12</v>
+      </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D72" s="3"/>
+      <c r="I71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="D72" s="3">
+        <v>12</v>
+      </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="9"/>
+        <v>45</v>
+      </c>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E74" s="3">
+        <v>3</v>
+      </c>
+      <c r="F74" s="3">
+        <v>14</v>
+      </c>
+      <c r="G74" s="3">
+        <v>14</v>
+      </c>
+      <c r="H74" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>98</v>
+      </c>
+      <c r="B75">
+        <v>4</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
       <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E79" s="3">
+        <v>80</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3</v>
+      </c>
+      <c r="G79" s="3">
+        <v>3</v>
+      </c>
+      <c r="H79" s="3">
+        <v>3</v>
+      </c>
+      <c r="I79" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -4497,20 +5210,2506 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.06640625" customWidth="1"/>
+    <col min="2" max="12" width="6.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="69.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19">
+        <v>4700</v>
+      </c>
+      <c r="C2" s="12">
+        <f>SUM(D2:O2)</f>
+        <v>3310</v>
+      </c>
+      <c r="D2" s="3">
+        <f>SUMPRODUCT(D3:D27,$B3:$B27)</f>
+        <v>421</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2" si="0">SUMPRODUCT(E3:E27,$B3:$B27)</f>
+        <v>288</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="1">SUMPRODUCT(F3:F27,$B3:$B27)</f>
+        <v>692</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2" si="2">SUMPRODUCT(G3:G27,$B3:$B27)</f>
+        <v>692</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" ref="H2" si="3">SUMPRODUCT(H3:H27,$B3:$B27)</f>
+        <v>566</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2" si="4">SUMPRODUCT(I3:I27,$B3:$B27)</f>
+        <v>207</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2" si="5">SUMPRODUCT(J3:J27,$B3:$B27)</f>
+        <v>152</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" ref="K2:L2" si="6">SUMPRODUCT(K3:K27,$B3:$B27)</f>
+        <v>47</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="6"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="19">
+        <v>4</v>
+      </c>
+      <c r="C3" s="12">
+        <f t="shared" ref="C3:C27" si="7">SUM(D3:O3)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20">
+        <v>3</v>
+      </c>
+      <c r="G3" s="20">
+        <v>3</v>
+      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="19">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="D4" s="3">
+        <v>36</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20">
+        <v>6</v>
+      </c>
+      <c r="G4" s="20">
+        <v>6</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="7"/>
+        <v>159</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
+        <v>43</v>
+      </c>
+      <c r="G5" s="3">
+        <v>43</v>
+      </c>
+      <c r="H5" s="3">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="19">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12">
+        <f>SUM(D6:O6)</f>
+        <v>666</v>
+      </c>
+      <c r="D6" s="3">
+        <v>160</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>126</v>
+      </c>
+      <c r="G6" s="3">
+        <v>126</v>
+      </c>
+      <c r="H6" s="3">
+        <v>110</v>
+      </c>
+      <c r="I6" s="3">
+        <v>60</v>
+      </c>
+      <c r="J6" s="3">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20">
+        <v>58</v>
+      </c>
+      <c r="G7" s="3">
+        <v>58</v>
+      </c>
+      <c r="H7" s="3">
+        <v>34</v>
+      </c>
+      <c r="I7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="19">
+        <v>2</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3">
+        <v>27</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="19">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="19">
+        <v>2</v>
+      </c>
+      <c r="C10" s="12">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="19">
+        <v>2</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="19">
+        <v>2</v>
+      </c>
+      <c r="C12" s="12">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>18</v>
+      </c>
+      <c r="G12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="12">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="12">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="12">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="H16">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="12">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="E18">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="12">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" s="12">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="12">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="J22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" s="12">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="I24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="12">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" s="12">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12">
+        <f t="shared" si="7"/>
+        <v>799</v>
+      </c>
+      <c r="D27">
+        <v>130</v>
+      </c>
+      <c r="E27">
+        <v>240</v>
+      </c>
+      <c r="F27">
+        <v>110</v>
+      </c>
+      <c r="G27">
+        <v>110</v>
+      </c>
+      <c r="H27">
+        <v>129</v>
+      </c>
+      <c r="L27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="19">
+        <v>4700</v>
+      </c>
+      <c r="C31" s="12">
+        <f>SUM(D31:O31)</f>
+        <v>3236</v>
+      </c>
+      <c r="D31" s="3">
+        <f>SUMPRODUCT(D32:D56,$B32:$B56)</f>
+        <v>421</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" ref="E31" si="8">SUMPRODUCT(E32:E56,$B32:$B56)</f>
+        <v>288</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" ref="F31" si="9">SUMPRODUCT(F32:F56,$B32:$B56)</f>
+        <v>655</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" ref="G31" si="10">SUMPRODUCT(G32:G56,$B32:$B56)</f>
+        <v>655</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31" si="11">SUMPRODUCT(H32:H56,$B32:$B56)</f>
+        <v>566</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" ref="I31" si="12">SUMPRODUCT(I32:I56,$B32:$B56)</f>
+        <v>207</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" ref="J31" si="13">SUMPRODUCT(J32:J56,$B32:$B56)</f>
+        <v>152</v>
+      </c>
+      <c r="K31" s="3">
+        <f t="shared" ref="K31:L31" si="14">SUMPRODUCT(K32:K56,$B32:$B56)</f>
+        <v>47</v>
+      </c>
+      <c r="L31" s="3">
+        <f t="shared" si="14"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="19">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12">
+        <f t="shared" ref="C32:C56" si="15">SUM(D32:O32)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <v>0</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="19">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12">
+        <f t="shared" si="15"/>
+        <v>94</v>
+      </c>
+      <c r="D33" s="3">
+        <v>36</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20">
+        <v>29</v>
+      </c>
+      <c r="G33" s="20">
+        <v>29</v>
+      </c>
+      <c r="H33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="19">
+        <v>2</v>
+      </c>
+      <c r="C34" s="12">
+        <f t="shared" si="15"/>
+        <v>149</v>
+      </c>
+      <c r="D34" s="3">
+        <v>40</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20">
+        <v>38</v>
+      </c>
+      <c r="G34" s="20">
+        <v>38</v>
+      </c>
+      <c r="H34" s="3">
+        <v>15</v>
+      </c>
+      <c r="I34" s="3">
+        <v>10</v>
+      </c>
+      <c r="J34" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="19">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12">
+        <f>SUM(D35:O35)</f>
+        <v>768</v>
+      </c>
+      <c r="D35" s="3">
+        <v>160</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>177</v>
+      </c>
+      <c r="G35" s="3">
+        <v>177</v>
+      </c>
+      <c r="H35" s="3">
+        <v>110</v>
+      </c>
+      <c r="I35" s="3">
+        <v>60</v>
+      </c>
+      <c r="J35" s="3">
+        <v>24</v>
+      </c>
+      <c r="L35" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="19">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12">
+        <f t="shared" ref="C36:C56" si="16">SUM(D36:O36)</f>
+        <v>112</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20">
+        <v>34</v>
+      </c>
+      <c r="G36" s="20">
+        <v>34</v>
+      </c>
+      <c r="H36" s="3">
+        <v>34</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="19">
+        <v>2</v>
+      </c>
+      <c r="C37" s="12">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20">
+        <v>9</v>
+      </c>
+      <c r="G37" s="20">
+        <v>9</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="19">
+        <v>6</v>
+      </c>
+      <c r="C38" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="19">
+        <v>2</v>
+      </c>
+      <c r="C39" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="19">
+        <v>2</v>
+      </c>
+      <c r="C40" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20">
+        <v>0</v>
+      </c>
+      <c r="G40" s="20">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="19">
+        <v>2</v>
+      </c>
+      <c r="C41" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" s="12">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" s="12">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" s="12">
+        <f t="shared" si="16"/>
+        <v>56</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46" s="12">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" s="12">
+        <f t="shared" si="16"/>
+        <v>85</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" s="12">
+        <f t="shared" si="16"/>
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>12</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49" s="12">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="12">
+        <f t="shared" si="16"/>
+        <v>110</v>
+      </c>
+      <c r="F50">
+        <v>45</v>
+      </c>
+      <c r="G50">
+        <v>45</v>
+      </c>
+      <c r="H50">
+        <v>12</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" s="12">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" s="12">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" s="12">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" s="12">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" s="12">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="L55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="12">
+        <f t="shared" si="16"/>
+        <v>793</v>
+      </c>
+      <c r="D56">
+        <v>130</v>
+      </c>
+      <c r="E56">
+        <v>240</v>
+      </c>
+      <c r="F56">
+        <v>107</v>
+      </c>
+      <c r="G56">
+        <v>107</v>
+      </c>
+      <c r="H56">
+        <v>129</v>
+      </c>
+      <c r="L56">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K58" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L58" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="19">
+        <v>4700</v>
+      </c>
+      <c r="C59" s="12">
+        <f>SUM(D59:O59)</f>
+        <v>3273</v>
+      </c>
+      <c r="D59" s="3">
+        <f>SUMPRODUCT(D60:D84,$B60:$B84)</f>
+        <v>421</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" ref="E59:L59" si="17">SUMPRODUCT(E60:E84,$B60:$B84)</f>
+        <v>288</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="17"/>
+        <v>692</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="17"/>
+        <v>655</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="17"/>
+        <v>566</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="17"/>
+        <v>207</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="17"/>
+        <v>152</v>
+      </c>
+      <c r="K59" s="3">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="17"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="19">
+        <v>4</v>
+      </c>
+      <c r="C60" s="12">
+        <f t="shared" ref="C60:C84" si="18">SUM(D60:O60)</f>
+        <v>3</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20">
+        <v>3</v>
+      </c>
+      <c r="G60" s="20">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="19">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12">
+        <f t="shared" si="18"/>
+        <v>71</v>
+      </c>
+      <c r="D61" s="3">
+        <v>36</v>
+      </c>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20">
+        <v>6</v>
+      </c>
+      <c r="G61" s="20">
+        <v>29</v>
+      </c>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="19">
+        <v>2</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" si="18"/>
+        <v>154</v>
+      </c>
+      <c r="D62" s="3">
+        <v>40</v>
+      </c>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20">
+        <v>43</v>
+      </c>
+      <c r="G62" s="20">
+        <v>38</v>
+      </c>
+      <c r="H62" s="3">
+        <v>15</v>
+      </c>
+      <c r="I62" s="3">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="19">
+        <v>1</v>
+      </c>
+      <c r="C63" s="12">
+        <f>SUM(D63:O63)</f>
+        <v>717</v>
+      </c>
+      <c r="D63" s="3">
+        <v>160</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3">
+        <v>126</v>
+      </c>
+      <c r="G63" s="3">
+        <v>177</v>
+      </c>
+      <c r="H63" s="3">
+        <v>110</v>
+      </c>
+      <c r="I63" s="3">
+        <v>60</v>
+      </c>
+      <c r="J63" s="3">
+        <v>24</v>
+      </c>
+      <c r="L63" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="19">
+        <v>1</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" ref="C64:C84" si="19">SUM(D64:O64)</f>
+        <v>136</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20">
+        <v>58</v>
+      </c>
+      <c r="G64" s="20">
+        <v>34</v>
+      </c>
+      <c r="H64" s="3">
+        <v>34</v>
+      </c>
+      <c r="I64" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="19">
+        <v>2</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20">
+        <v>27</v>
+      </c>
+      <c r="G65" s="20">
+        <v>9</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="19">
+        <v>6</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20">
+        <v>12</v>
+      </c>
+      <c r="G66" s="20">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="19">
+        <v>2</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="19">
+        <v>2</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20">
+        <v>27</v>
+      </c>
+      <c r="G68" s="20">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="19">
+        <v>2</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>18</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70">
+        <v>4</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>82</v>
+      </c>
+      <c r="B72">
+        <v>4</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+      <c r="G72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73">
+        <v>4</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74">
+        <v>5</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="19"/>
+        <v>65</v>
+      </c>
+      <c r="E75">
+        <v>24</v>
+      </c>
+      <c r="G75">
+        <v>20</v>
+      </c>
+      <c r="I75">
+        <v>8</v>
+      </c>
+      <c r="K75">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="G76">
+        <v>12</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="19"/>
+        <v>65</v>
+      </c>
+      <c r="G78">
+        <v>45</v>
+      </c>
+      <c r="H78">
+        <v>12</v>
+      </c>
+      <c r="J78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>98</v>
+      </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80">
+        <v>4</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" s="12">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" s="12">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+      <c r="C83" s="12">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="L83">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="12">
+        <f t="shared" si="19"/>
+        <v>796</v>
+      </c>
+      <c r="D84">
+        <v>130</v>
+      </c>
+      <c r="E84">
+        <v>240</v>
+      </c>
+      <c r="F84">
+        <v>110</v>
+      </c>
+      <c r="G84">
+        <v>107</v>
+      </c>
+      <c r="H84">
+        <v>129</v>
+      </c>
+      <c r="L84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J86" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K86" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="19">
+        <v>4700</v>
+      </c>
+      <c r="C87" s="12">
+        <f>SUM(D87:O87)</f>
+        <v>2995</v>
+      </c>
+      <c r="D87" s="3">
+        <f>SUMPRODUCT(D88:D112,$B88:$B112)</f>
+        <v>421</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" ref="E87" si="20">SUMPRODUCT(E88:E112,$B88:$B112)</f>
+        <v>288</v>
+      </c>
+      <c r="F87" s="3">
+        <f t="shared" ref="F87" si="21">SUMPRODUCT(F88:F112,$B88:$B112)</f>
+        <v>655</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" ref="G87" si="22">SUMPRODUCT(G88:G112,$B88:$B112)</f>
+        <v>566</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" ref="H87" si="23">SUMPRODUCT(H88:H112,$B88:$B112)</f>
+        <v>566</v>
+      </c>
+      <c r="I87" s="3">
+        <f t="shared" ref="I87" si="24">SUMPRODUCT(I88:I112,$B88:$B112)</f>
+        <v>207</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" ref="J87:K87" si="25">SUMPRODUCT(J88:J112,$B88:$B112)</f>
+        <v>47</v>
+      </c>
+      <c r="K87" s="3">
+        <f t="shared" si="25"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B88" s="19">
+        <v>4</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" ref="C88:C112" si="26">SUM(D88:O88)</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="3"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20">
+        <v>0</v>
+      </c>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="19">
+        <v>1</v>
+      </c>
+      <c r="C89" s="12">
+        <f t="shared" si="26"/>
+        <v>65</v>
+      </c>
+      <c r="D89" s="3">
+        <v>36</v>
+      </c>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20">
+        <v>29</v>
+      </c>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="19">
+        <v>2</v>
+      </c>
+      <c r="C90" s="12">
+        <f t="shared" si="26"/>
+        <v>118</v>
+      </c>
+      <c r="D90" s="3">
+        <v>40</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20">
+        <v>38</v>
+      </c>
+      <c r="G90" s="3">
+        <v>15</v>
+      </c>
+      <c r="H90" s="3">
+        <v>15</v>
+      </c>
+      <c r="I90" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="19">
+        <v>1</v>
+      </c>
+      <c r="C91" s="12">
+        <f>SUM(D91:O91)</f>
+        <v>677</v>
+      </c>
+      <c r="D91" s="3">
+        <v>160</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3">
+        <v>177</v>
+      </c>
+      <c r="G91" s="3">
+        <v>110</v>
+      </c>
+      <c r="H91" s="3">
+        <v>110</v>
+      </c>
+      <c r="I91" s="3">
+        <v>60</v>
+      </c>
+      <c r="K91" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>65</v>
+      </c>
+      <c r="B92" s="19">
+        <v>1</v>
+      </c>
+      <c r="C92" s="12">
+        <f t="shared" ref="C92:C112" si="27">SUM(D92:O92)</f>
+        <v>112</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20">
+        <v>34</v>
+      </c>
+      <c r="G92" s="3">
+        <v>34</v>
+      </c>
+      <c r="H92" s="3">
+        <v>34</v>
+      </c>
+      <c r="I92" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="19">
+        <v>2</v>
+      </c>
+      <c r="C93" s="12">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20">
+        <v>9</v>
+      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="19">
+        <v>6</v>
+      </c>
+      <c r="C94" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>76</v>
+      </c>
+      <c r="B95" s="19">
+        <v>2</v>
+      </c>
+      <c r="C95" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="19">
+        <v>2</v>
+      </c>
+      <c r="C96" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="20"/>
+      <c r="F96" s="20">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="19">
+        <v>2</v>
+      </c>
+      <c r="C97" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>81</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" s="12">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100">
+        <v>4</v>
+      </c>
+      <c r="C100" s="12">
+        <f t="shared" si="27"/>
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101">
+        <v>4</v>
+      </c>
+      <c r="C101" s="12">
+        <f t="shared" si="27"/>
+        <v>112</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>56</v>
+      </c>
+      <c r="H101">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>96</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+      <c r="C102" s="12">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>3</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" s="12">
+        <f t="shared" si="27"/>
+        <v>65</v>
+      </c>
+      <c r="E103">
+        <v>24</v>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="I103">
+        <v>8</v>
+      </c>
+      <c r="J103">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104" s="12">
+        <f t="shared" si="27"/>
+        <v>23</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="F104">
+        <v>12</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>100</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+      <c r="C105" s="12">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" s="12">
+        <f t="shared" si="27"/>
+        <v>69</v>
+      </c>
+      <c r="F106">
+        <v>45</v>
+      </c>
+      <c r="G106">
+        <v>12</v>
+      </c>
+      <c r="H106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" s="12">
+        <f t="shared" si="27"/>
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" s="12">
+        <f t="shared" si="27"/>
+        <v>6</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109" s="12">
+        <f t="shared" si="27"/>
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110" s="12">
+        <f t="shared" si="27"/>
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" s="12">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="K111">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112" s="12">
+        <f t="shared" si="27"/>
+        <v>815</v>
+      </c>
+      <c r="D112">
+        <v>130</v>
+      </c>
+      <c r="E112">
+        <v>240</v>
+      </c>
+      <c r="F112">
+        <v>107</v>
+      </c>
+      <c r="G112">
+        <v>129</v>
+      </c>
+      <c r="H112">
+        <v>129</v>
+      </c>
+      <c r="K112">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>55</v>
       </c>
